--- a/data/2/20230603-a1r-yc-session2-b_transcript.xlsx
+++ b/data/2/20230603-a1r-yc-session2-b_transcript.xlsx
@@ -1,459 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marlibosler/Desktop/Session 2/EXCEL 06:03 session 2/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DCF7E9-A947-5345-81ED-A440CE682E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - 20230603-a1r-yc-sessi" sheetId="1" r:id="rId1"/>
-    <sheet name="proposal" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="135">
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>"17:43"</t>
-  </si>
-  <si>
-    <t>I have a lot of concerns about a very small number of people making a decision for all the people in the state. I think this takes away the vote on the people in the state. I think it is the people and their vote who should be deciding on who represents them.</t>
-  </si>
-  <si>
-    <t>"18:10"</t>
-  </si>
-  <si>
-    <t>I agree with Barbara, is disturbing to have so few make choices for so many and should be up to us in its entirety.</t>
-  </si>
-  <si>
-    <t>"18:21"</t>
-  </si>
-  <si>
-    <t>I agree to because I think the voters have the say, you know, if the if the popular whoever wins the popular vote should be the presidential the president for the country. But not only some group that will you know, decide who should be the president of the country.</t>
-  </si>
-  <si>
-    <t>"18:50"</t>
-  </si>
-  <si>
-    <t>I agree with them both also.</t>
-  </si>
-  <si>
-    <t>"18:57"</t>
-  </si>
-  <si>
-    <t>I guess I'm just preaching to the choir because I agree. It is very anti-democratic to let all animals be equal but some be more equal than others.</t>
-  </si>
-  <si>
-    <t>"19:14"</t>
-  </si>
-  <si>
-    <t>Yeah, I'm going to agree with all of you.</t>
-  </si>
-  <si>
-    <t>"19:24"</t>
-  </si>
-  <si>
-    <t>I really liked how that was put where you said we're all equal, but some of us are more equal than others. 100%, you hit the nail on the head.</t>
-  </si>
-  <si>
-    <t>"20:44"</t>
-  </si>
-  <si>
-    <t>I think it should stay exactly like it is if you have some kind of a situation where the biggest part of a people population votes, like New York State and other places in California, have a larger population than I do in Maine or in other states. And that's why two delegates from each states that elect people going to Electoral College, works better.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thank you.</t>
-  </si>
-  <si>
-    <t>"21:15"</t>
-  </si>
-  <si>
-    <t>I agree 100% with what you said. If we did not have the Electoral College, we would have two areas of our country that would run the entire country, California and New York. And we would have a lot of people who would be disenfranchised quite frankly, because their voice would not be heard. Our founding fathers were very wise when they set up this system because they wanted.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Every state to be represented equally, no matter how large or how small the population was.</t>
-  </si>
-  <si>
-    <t>"21:56"</t>
-  </si>
-  <si>
-    <t>I'm in agreement that the current system should stay in place the electoral college, but with ranked Choice, voting for each state, so that the delegate up, I'm sorry at the electoral votes from each state represents the majority of that states of vote.</t>
-  </si>
-  <si>
-    <t>"22:18"</t>
-  </si>
-  <si>
-    <t>I'm going to be the dissenter this time, I don't like the Electoral College. I live in a small nowhere state, but if one person in California gets one vote, I should get one vote not for million.</t>
-  </si>
-  <si>
-    <t>"22:37"</t>
-  </si>
-  <si>
-    <t>I live in Ohio and we were just not in the union long enough, early enough to vote for the slave state proposal of having a Electoral College. It's a concession to the slave states and I think it needs to be eliminated.</t>
-  </si>
-  <si>
-    <t>"22:59"</t>
-  </si>
-  <si>
-    <t>Was living here in Missouri. I know certain parts of Missouri. We only have so many like as far as so many votes and stuff like that compared to California, New York, then you go up to South Dakota and Wyoming, they don't have as much population there. So I mean, I liked it that we, you know, everybody should have, you know, like with you know, like we said earlier, you know, one vote in California is one vote for me and not</t>
-  </si>
-  <si>
-    <t>You know, 4 million votes for whoever and only one for me. So that's what we need to have it more equal for everybody.</t>
-  </si>
-  <si>
-    <t>"24:56"</t>
-  </si>
-  <si>
-    <t>What are my thoughts about this proposal? I have grave concerns about the vote of the people being ignored, with this particular situation, you have</t>
-  </si>
-  <si>
-    <t>If you are a supporter of the popular vote that are the popular vote, you would probably love this. If you are not, then you have concerns about it. This is back again to a small group of people that are saying, I don't care what the people in our state voted for, you know, so-and-so, Got 5 million votes and</t>
-  </si>
-  <si>
-    <t>"25:41"</t>
-  </si>
-  <si>
-    <t>I agree.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> This basically seems to me that if someone wins the popular vote all of the other states have to pretend that they also support this result, regardless of the popular vote, I think it's a way to pretend that the president has a mandate that quite frankly. They may not</t>
-  </si>
-  <si>
-    <t>"26:04"</t>
-  </si>
-  <si>
-    <t>Yeah, this just sounds like the popular vote, but using a different name for the same concept honestly.</t>
-  </si>
-  <si>
-    <t>"26:14"</t>
-  </si>
-  <si>
-    <t>Yeah, popular vote. I'm not a fan of this one.</t>
-  </si>
-  <si>
-    <t>"26:20"</t>
-  </si>
-  <si>
-    <t>I agree with everybody.</t>
-  </si>
-  <si>
-    <t>"26:31"</t>
-  </si>
-  <si>
-    <t>We all agree, that's good.</t>
-  </si>
-  <si>
-    <t>"27:54"</t>
-  </si>
-  <si>
-    <t>Again, we have separation of powers, the judicial branch of our government, is the one that decides on the laws. Of course, Supreme Court of the land is supposed to be insulated from all the politics that is going on in the country. If they are appointed for life, they are insulated.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Added from this particular issue. Therefore they can focus on the Constitution which is what they are required to follow to decide whether something is allowed over. The something is not.</t>
-  </si>
-  <si>
-    <t>"28:39"</t>
-  </si>
-  <si>
-    <t>I think it should stay at nine and never be changed and be voted on the stay that way.</t>
-  </si>
-  <si>
-    <t>"28:47"</t>
-  </si>
-  <si>
-    <t>I agree. I think that this is a pretty good number of people on the Supreme Court has changed over the years, according to the whims of whatever political party was in power at the time because we need to try to insulate these people from the politics of our country, which can run very rampant, as we all agree on that, the Supreme Court people need</t>
-  </si>
-  <si>
-    <t>To not worry about anything other than following the law appointed for life. I think we should set it at whatever number, like, 9, that would be fine. Well, it's been</t>
-  </si>
-  <si>
-    <t>"29:32"</t>
-  </si>
-  <si>
-    <t>And what's an appointment? Does not necessarily imply that they'll be insulated from politics or external influence. I think the, the ethical standards Clause of this topic is extremely important for such a key figure in our government key figures in our governments. They should be held to about the possibly the highest standards of anyone in our government, right?</t>
-  </si>
-  <si>
-    <t>"30:06"</t>
-  </si>
-  <si>
-    <t>I think we should definitely leave the Supreme Court Justices at nine and this is the way. It has worked for us for how many, many years and we need to leave it as is and don't rock the boat in which everybody wants to rock the boat here in whether it be the president, the current president or whichever president and Congress. So we just need to leave well enough alone and leave it at 9:00.</t>
-  </si>
-  <si>
-    <t>"30:37"</t>
-  </si>
-  <si>
-    <t>I don't think it really matters. How many people are on the Supreme Court as long as their health, to some ethical standard, you know, you can have mine, corrupt, judges or nine, ethical judges, and the same thing goes for the term. You can have a corrupt judge for 18 years or you can have an uncorrupted judge for life. It doesn't matter. What matters is the individual judges being held accountable</t>
-  </si>
-  <si>
-    <t>"31:02"</t>
-  </si>
-  <si>
-    <t>I think the latest Supreme Court additions have proven that there's a degree of political bias that has been infused into the court. The court needs to be amended, the court needs to have a standard and they need to comply with those standards.</t>
-  </si>
-  <si>
-    <t>"31:27"</t>
-  </si>
-  <si>
-    <t>I think it should stay at 9 but also think lifetime of just too long to me 12:18, whatever it may be, but lifetime is too long because you begin to see, they choose a certain try to choose a certain pick a certain judge that fit their criteria so they can win or vice versa. It just done got to political. They seem like they're not stuck on the constitutional.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> More. It's too political they are stuck in the political realm just like regular polish politician.</t>
-  </si>
-  <si>
-    <t>"33:04"</t>
-  </si>
-  <si>
-    <t>I took government why I went to high school and I made me help understand all about how government operates, and I think schools should have a Civics and have a government. So you know, what, a program about government to know what and how to vote. I know my dog youngest daughter who's 25 didn't have anything about Civics of government when she went to school and she doesn't have a clue how to vote.</t>
-  </si>
-  <si>
-    <t>"33:31"</t>
-  </si>
-  <si>
-    <t>I agree. I'm of the same age and we had problems of democracy and open debate quite a bit, but now they don't seem to have that and that should come back.</t>
-  </si>
-  <si>
-    <t>"33:45"</t>
-  </si>
-  <si>
-    <t>Yeah, I think this would be a really good idea. Like a lot of people my age that I've talked to, don't know that we're like we're a constitutional republic because electoral college that we use the Constitution for what we do and strive for United States. And to think that we don't want to put more money towards because we're falling behind in science technology. These are things are going to affect your most everyday life and so</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> So if you don't know about how the government works, then how do you know it's affecting you with laws and how taxes work, anything like that?</t>
-  </si>
-  <si>
-    <t>"34:24"</t>
-  </si>
-  <si>
-    <t>As far as for me, I, of course I graduated in 91. I, of course, I'm telling my age here now. Anyway, I had a government class in college. I had it in high school and now my my oldest son, he is going to be a sophomore in high school. And of course, they have not seen them where they have, you know, government class.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ass. But they need to do that. Have government classes and education is the biggest part for everybody on this and people need to listen to it.</t>
-  </si>
-  <si>
-    <t>"35:06"</t>
-  </si>
-  <si>
-    <t>I think teaching Civics in schools is very very important. I really my own personal opinion is I do not see any reason to increase funding necessarily. I think what we need to focus on is what's being taught in the textbooks that the schools are adopting right now that you need to be aware of what the children are being taught. I think it's also great idea to have debates.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> On different opinions and having just the kids in the schools just listen to each other and hear everybody's different opinion but I think what is being taught in the textbooks? I think the textbooks are the most important.</t>
-  </si>
-  <si>
-    <t>"35:51"</t>
-  </si>
-  <si>
-    <t>Yeah, I only had one Civic class in high school and I do not think that was enough. This was a about 20-something years ago, but I think they should have more classes.</t>
-  </si>
-  <si>
-    <t>"36:11"</t>
-  </si>
-  <si>
-    <t>I really believe that it goes back to what we needs to start doing more on Kathleen. Said, she graduated in 91, I was here before you, and we used to have debates in government. We used to have five-on-five discussions and just to see where we at. That's why I think this platform is so good, because everybody got different views and different</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> standing from things. I've been doing this now for four years. I learned there something every time I do this and that's what we need to get back to Islam. Discussing discussing things, there's nothing more important in the United States, then,</t>
-  </si>
-  <si>
-    <t>"41:27"</t>
-  </si>
-  <si>
-    <t>I'm going to say something because no one is saying anything, I appreciate very much your thought on this of eliminating one ship or one aircraft to fund democracy education in the school's. I understand how important teaching Civics is in our schools. Our children are growing up, not knowing anything about their country. I think the military is very important as well. I don't think that we need to add more</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> More money to teaching Civics in school. I just think we need to look at what's being taught in the textbooks. That's what I feel.</t>
-  </si>
-  <si>
-    <t>"42:18"</t>
-  </si>
-  <si>
-    <t>This is my question. My thought on this is if we have a constitutional amendment to have nine Supreme Court Justices, that's what we have right now. That's the only reason I picked the number 9. Then we don't have people fighting back and forth in each party or people arguing about whether we should pack the Supreme Court whether we should not, whether we should increase whether we should decrease, you know, it takes away the argument, it takes with a</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Problems. That's just my thought.</t>
-  </si>
-  <si>
-    <t>"42:51"</t>
-  </si>
-  <si>
-    <t>Well, clearly they've packed the court. Clearly they have political agendas and clearly having six justices of the same religion, creates a bias within that court. So, unless and until we have a better system of selecting judges, we're going to have to leave the option over and to expand the Supreme Court.</t>
-  </si>
-  <si>
-    <t>"43:15"</t>
-  </si>
-  <si>
-    <t>I say we just leave the Supreme Court just as 9 and whether they are all have the same views, it's okay. But if not that's fine, we just need to have it. I agree with Barbara that we need to have the Constitutional Amendment at nine justices because they are picked from all different, you know, religions and things like this. So just leave it at nine.</t>
-  </si>
-  <si>
-    <t>"44:10"</t>
-  </si>
-  <si>
-    <t>Timothy, I love this question. I read it and I put it up at the top. At number one, it is fantastic. The children, go to school to learn reading language, arts Math, Science Social Studies Civics. A lot of different things in the schools, they don't go to school to learn</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The social influences of the Educators who were there at the school? We need to have teachers who are not trying to instill their personal beliefs on the students, the teachers need to do their job. They need to</t>
-  </si>
-  <si>
-    <t>"44:55"</t>
-  </si>
-  <si>
-    <t>Again it's difficult to eliminate bias within the school system because we have so many teachers to are now caught up in that several political movements. So if we had a national curriculum, just based on the simple Act of living in a democracy that would be a good step.</t>
-  </si>
-  <si>
-    <t>"45:24"</t>
-  </si>
-  <si>
-    <t>Bush tried to do a national teaching system that never work, but</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I have three kids that are teachers, my youngest three kids and they do do things based on what their opinions are. So if you bring up your children in a proper way, their opinions might be better than what the some of the teachers and the school systems try to do now.</t>
-  </si>
-  <si>
-    <t>"45:51"</t>
-  </si>
-  <si>
-    <t>Yeah, wanted to reassure Barbara that you know, most of the textbooks are 30 years olds anyway, they're not exactly up to date.</t>
-  </si>
-  <si>
-    <t>"46:02"</t>
-  </si>
-  <si>
-    <t>I was a teacher for 37 years, my various beliefs on anything other than being kind to other people and thoughtful. That was it. I did not try to instill anything into my students, and I taught 37 years.</t>
-  </si>
-  <si>
-    <t>"46:53"</t>
-  </si>
-  <si>
-    <t>I put this question in because a lot of well the schools they are eliminating a lot of as far as classes and things like this and we need to get back to what we have in like what I had in school and like, you know, like Barbara said, she taught for 37 years. I mean, you know, a lot of those good school teachers that we all had when we were younger are not out there, we've got all these new ones on there that one at all, like you said, they want to interject.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Act their opinions in influence, our kids on things that are not right sometimes.</t>
-  </si>
-  <si>
-    <t>"47:31"</t>
-  </si>
-  <si>
-    <t>My daughter's at a teachers teach when teaches stem, which is Math and Science and the other one teaches math and math and science. And pretty much have the same, its social studies, and things of that nature that get opinions put in.</t>
-  </si>
-  <si>
-    <t>"47:50"</t>
-  </si>
-  <si>
-    <t>I think this question is Big because just get back to basic it kills me to know that they don't even teach how to write cursive no more. How can you sign a check? Now, I guess everybody going to put a hex on their own they checks and stuff. Now it's just things that they took away. That means something to our country that we have had for my grandparents, and their parents and so on, it worked for us why it can't work for them.</t>
-  </si>
-  <si>
-    <t>"48:17"</t>
-  </si>
-  <si>
-    <t>In our school, where as far as where my kids go to school, they don't have driver's ed. They don't have as far as singles Hummock, those are the two important things you need to have to have a job. Why are we getting away from that and going into something totally different? Now, I mean, this is why we need to get back to our Basics and teaching our kids, this because a lot of them they don't know. Like like T said they don't know how to balance</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Checkbooks. And so, I mean this is something we got to get back to doing.</t>
-  </si>
-  <si>
-    <t>"48:54"</t>
-  </si>
-  <si>
-    <t>I agree. Thank you very much. Your opinions are wonderful. Thank you. I agree. And we do need to teach cursive. I agree with that too.</t>
-  </si>
-  <si>
-    <t>"50:11"</t>
-  </si>
-  <si>
-    <t>Could you rewrite that question? So it is a question.</t>
-  </si>
-  <si>
-    <t>"50:52"</t>
-  </si>
-  <si>
-    <t>So basically, how do we make a better school system for our children is what I'm understanding there.</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>proposal</t>
-  </si>
-  <si>
-    <t>Implement RCV as an alternative method both to elected officials and representatives at all levels</t>
-  </si>
-  <si>
-    <t>Change the primary system</t>
-  </si>
-  <si>
-    <t>Use proportional representatives to elect elected officials</t>
-  </si>
-  <si>
-    <t>Change the current electoral college</t>
-  </si>
-  <si>
-    <t>Implement more accessibility to voting</t>
-  </si>
-  <si>
-    <t>Restore federal and state voting rights to citizens with felony convictions upon their release from prison</t>
-  </si>
-  <si>
-    <t>Implement voting standards that are less strict</t>
-  </si>
-  <si>
-    <t>Implement more measures to address voter fraud</t>
-  </si>
-  <si>
-    <t>Implement more fairness and transparency in the election process</t>
-  </si>
-  <si>
-    <t>Implement limits on financing individual candidates and parties</t>
-  </si>
-  <si>
-    <t>Increase in public funding and financing for campaigns</t>
-  </si>
-  <si>
-    <t>Implement a term limit for Supreme Court Justices</t>
-  </si>
-  <si>
-    <t>Increase opportunities for learning about civic education in schools</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
+      <name val="Helvetica Neue"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -529,44 +113,44 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -635,14 +219,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1717,954 +1293,1171 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IS78"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="166.6640625" style="1" customWidth="1"/>
-    <col min="4" max="253" width="8.33203125" style="1" customWidth="1"/>
+    <col width="6.1640625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="7" customWidth="1" style="1" min="2" max="2"/>
+    <col width="166.6640625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="8.33203125" customWidth="1" style="1" min="4" max="253"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+    <row r="1" ht="20.25" customHeight="1" s="9">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>speaker</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" s="9">
+      <c r="A2" s="4" t="n">
         <v>10680</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>"17:43"</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>I have a lot of concerns about a very small number of people making a decision for all the people in the state. I think this takes away the vote on the people in the state. I think it is the people and their vote who should be deciding on who represents them.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1" s="9">
+      <c r="A3" s="4" t="n">
         <v>10378</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>"18:10"</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>I agree with Barbara, is disturbing to have so few make choices for so many and should be up to us in its entirety.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" s="9">
+      <c r="A4" s="4" t="n">
         <v>48535</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>"18:21"</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>I agree to because I think the voters have the say, you know, if the if the popular whoever wins the popular vote should be the presidential the president for the country. But not only some group that will you know, decide who should be the president of the country.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" s="9">
+      <c r="A5" s="4" t="n">
         <v>48535</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>"18:21"</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="n"/>
+    </row>
+    <row r="6" ht="20" customHeight="1" s="9">
+      <c r="A6" s="4" t="n">
         <v>9484</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>"18:50"</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>I agree with them both also.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1" s="9">
+      <c r="A7" s="4" t="n">
         <v>48260</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>"18:57"</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>I guess I'm just preaching to the choir because I agree. It is very anti-democratic to let all animals be equal but some be more equal than others.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1" s="9">
+      <c r="A8" s="4" t="n">
         <v>48290</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>"19:14"</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I'm going to agree with all of you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1" s="9">
+      <c r="A9" s="4" t="n">
         <v>10680</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>"19:24"</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>I really liked how that was put where you said we're all equal, but some of us are more equal than others. 100%, you hit the nail on the head.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1" s="9">
+      <c r="A10" s="4" t="n">
         <v>9484</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>"20:44"</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>I think it should stay exactly like it is if you have some kind of a situation where the biggest part of a people population votes, like New York State and other places in California, have a larger population than I do in Maine or in other states. And that's why two delegates from each states that elect people going to Electoral College, works better.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" s="9">
+      <c r="A11" s="4" t="n">
         <v>9484</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>"20:44"</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1" s="9">
+      <c r="A12" s="4" t="n">
         <v>10680</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>"21:15"</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>I agree 100% with what you said. If we did not have the Electoral College, we would have two areas of our country that would run the entire country, California and New York. And we would have a lot of people who would be disenfranchised quite frankly, because their voice would not be heard. Our founding fathers were very wise when they set up this system because they wanted.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1" s="9">
+      <c r="A13" s="4" t="n">
         <v>10680</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>"21:15"</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Every state to be represented equally, no matter how large or how small the population was.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1" s="9">
+      <c r="A14" s="4" t="n">
         <v>10378</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>"21:56"</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>I'm in agreement that the current system should stay in place the electoral college, but with ranked Choice, voting for each state, so that the delegate up, I'm sorry at the electoral votes from each state represents the majority of that states of vote.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1" s="9">
+      <c r="A15" s="4" t="n">
         <v>48260</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4">
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>"22:18"</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>I'm going to be the dissenter this time, I don't like the Electoral College. I live in a small nowhere state, but if one person in California gets one vote, I should get one vote not for million.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1" s="9">
+      <c r="A16" s="4" t="n">
         <v>48390</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4">
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>"22:37"</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>I live in Ohio and we were just not in the union long enough, early enough to vote for the slave state proposal of having a Electoral College. It's a concession to the slave states and I think it needs to be eliminated.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1" s="9">
+      <c r="A17" s="4" t="n">
         <v>10507</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4">
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>"22:59"</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>Was living here in Missouri. I know certain parts of Missouri. We only have so many like as far as so many votes and stuff like that compared to California, New York, then you go up to South Dakota and Wyoming, they don't have as much population there. So I mean, I liked it that we, you know, everybody should have, you know, like with you know, like we said earlier, you know, one vote in California is one vote for me and not</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1" s="9">
+      <c r="A18" s="4" t="n">
         <v>10507</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4">
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>"22:59"</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>You know, 4 million votes for whoever and only one for me. So that's what we need to have it more equal for everybody.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1" s="9">
+      <c r="A19" s="4" t="n">
         <v>10680</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4">
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>"24:56"</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>What are my thoughts about this proposal? I have grave concerns about the vote of the people being ignored, with this particular situation, you have</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1" s="9">
+      <c r="A20" s="4" t="n">
         <v>10680</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4">
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>"24:56"</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>If you are a supporter of the popular vote that are the popular vote, you would probably love this. If you are not, then you have concerns about it. This is back again to a small group of people that are saying, I don't care what the people in our state voted for, you know, so-and-so, Got 5 million votes and</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1" s="9">
+      <c r="A21" s="4" t="n">
         <v>48260</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="4">
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>"25:41"</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n"/>
+    </row>
+    <row r="22" ht="20" customHeight="1" s="9">
+      <c r="A22" s="4" t="n">
         <v>48260</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="4">
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>"25:41"</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>I agree.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1" s="9">
+      <c r="A23" s="4" t="n">
         <v>48260</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="4">
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>"25:41"</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> This basically seems to me that if someone wins the popular vote all of the other states have to pretend that they also support this result, regardless of the popular vote, I think it's a way to pretend that the president has a mandate that quite frankly. They may not</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="1" s="9">
+      <c r="A24" s="4" t="n">
         <v>10598</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="4">
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>"26:04"</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, this just sounds like the popular vote, but using a different name for the same concept honestly.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="20" customHeight="1" s="9">
+      <c r="A25" s="4" t="n">
         <v>48290</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4">
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>"26:14"</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, popular vote. I'm not a fan of this one.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="20" customHeight="1" s="9">
+      <c r="A26" s="4" t="n">
         <v>9484</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="4">
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>"26:20"</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>I agree with everybody.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1" s="9">
+      <c r="A27" s="4" t="n">
         <v>10680</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4">
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t>"26:31"</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>We all agree, that's good.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="1" s="9">
+      <c r="A28" s="4" t="n">
         <v>10680</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="4">
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>"27:54"</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>Again, we have separation of powers, the judicial branch of our government, is the one that decides on the laws. Of course, Supreme Court of the land is supposed to be insulated from all the politics that is going on in the country. If they are appointed for life, they are insulated.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1" s="9">
+      <c r="A29" s="4" t="n">
         <v>10680</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="4">
+      <c r="B29" s="5" t="inlineStr">
+        <is>
+          <t>"27:54"</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Added from this particular issue. Therefore they can focus on the Constitution which is what they are required to follow to decide whether something is allowed over. The something is not.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1" s="9">
+      <c r="A30" s="4" t="n">
         <v>9484</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="4">
+      <c r="B30" s="5" t="inlineStr">
+        <is>
+          <t>"28:39"</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>I think it should stay at nine and never be changed and be voted on the stay that way.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1" s="9">
+      <c r="A31" s="4" t="n">
         <v>10680</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="4">
+      <c r="B31" s="5" t="inlineStr">
+        <is>
+          <t>"28:47"</t>
+        </is>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>I agree. I think that this is a pretty good number of people on the Supreme Court has changed over the years, according to the whims of whatever political party was in power at the time because we need to try to insulate these people from the politics of our country, which can run very rampant, as we all agree on that, the Supreme Court people need</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1" s="9">
+      <c r="A32" s="4" t="n">
         <v>10680</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="4">
+      <c r="B32" s="5" t="inlineStr">
+        <is>
+          <t>"28:47"</t>
+        </is>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>To not worry about anything other than following the law appointed for life. I think we should set it at whatever number, like, 9, that would be fine. Well, it's been</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1" s="9">
+      <c r="A33" s="4" t="n">
         <v>48460</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="4">
+      <c r="B33" s="5" t="inlineStr">
+        <is>
+          <t>"29:32"</t>
+        </is>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>And what's an appointment? Does not necessarily imply that they'll be insulated from politics or external influence. I think the, the ethical standards Clause of this topic is extremely important for such a key figure in our government key figures in our governments. They should be held to about the possibly the highest standards of anyone in our government, right?</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1" s="9">
+      <c r="A34" s="4" t="n">
         <v>48460</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="4">
+      <c r="B34" s="5" t="inlineStr">
+        <is>
+          <t>"29:32"</t>
+        </is>
+      </c>
+      <c r="C34" s="6" t="n"/>
+    </row>
+    <row r="35" ht="20" customHeight="1" s="9">
+      <c r="A35" s="4" t="n">
         <v>10507</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="4">
+      <c r="B35" s="5" t="inlineStr">
+        <is>
+          <t>"30:06"</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>I think we should definitely leave the Supreme Court Justices at nine and this is the way. It has worked for us for how many, many years and we need to leave it as is and don't rock the boat in which everybody wants to rock the boat here in whether it be the president, the current president or whichever president and Congress. So we just need to leave well enough alone and leave it at 9:00.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1" s="9">
+      <c r="A36" s="4" t="n">
         <v>48260</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="4">
+      <c r="B36" s="5" t="inlineStr">
+        <is>
+          <t>"30:37"</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>I don't think it really matters. How many people are on the Supreme Court as long as their health, to some ethical standard, you know, you can have mine, corrupt, judges or nine, ethical judges, and the same thing goes for the term. You can have a corrupt judge for 18 years or you can have an uncorrupted judge for life. It doesn't matter. What matters is the individual judges being held accountable</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="20" customHeight="1" s="9">
+      <c r="A37" s="4" t="n">
         <v>48390</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="6"/>
-    </row>
-    <row r="38" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="4">
+      <c r="B37" s="5" t="inlineStr">
+        <is>
+          <t>"31:02"</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n"/>
+    </row>
+    <row r="38" ht="20" customHeight="1" s="9">
+      <c r="A38" s="4" t="n">
         <v>48390</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="4">
+      <c r="B38" s="5" t="inlineStr">
+        <is>
+          <t>"31:02"</t>
+        </is>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>I think the latest Supreme Court additions have proven that there's a degree of political bias that has been infused into the court. The court needs to be amended, the court needs to have a standard and they need to comply with those standards.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="20" customHeight="1" s="9">
+      <c r="A39" s="4" t="n">
         <v>9522</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="4">
+      <c r="B39" s="5" t="inlineStr">
+        <is>
+          <t>"31:27"</t>
+        </is>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>I think it should stay at 9 but also think lifetime of just too long to me 12:18, whatever it may be, but lifetime is too long because you begin to see, they choose a certain try to choose a certain pick a certain judge that fit their criteria so they can win or vice versa. It just done got to political. They seem like they're not stuck on the constitutional.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="20" customHeight="1" s="9">
+      <c r="A40" s="4" t="n">
         <v>9522</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="4">
+      <c r="B40" s="5" t="inlineStr">
+        <is>
+          <t>"31:27"</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> More. It's too political they are stuck in the political realm just like regular polish politician.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="20" customHeight="1" s="9">
+      <c r="A41" s="4" t="n">
         <v>9484</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="4">
+      <c r="B41" s="5" t="inlineStr">
+        <is>
+          <t>"33:04"</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>I took government why I went to high school and I made me help understand all about how government operates, and I think schools should have a Civics and have a government. So you know, what, a program about government to know what and how to vote. I know my dog youngest daughter who's 25 didn't have anything about Civics of government when she went to school and she doesn't have a clue how to vote.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="20" customHeight="1" s="9">
+      <c r="A42" s="4" t="n">
         <v>48390</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" s="6"/>
-    </row>
-    <row r="43" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="4">
+      <c r="B42" s="5" t="inlineStr">
+        <is>
+          <t>"33:31"</t>
+        </is>
+      </c>
+      <c r="C42" s="6" t="n"/>
+    </row>
+    <row r="43" ht="20" customHeight="1" s="9">
+      <c r="A43" s="4" t="n">
         <v>48390</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="4">
+      <c r="B43" s="5" t="inlineStr">
+        <is>
+          <t>"33:31"</t>
+        </is>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>I agree. I'm of the same age and we had problems of democracy and open debate quite a bit, but now they don't seem to have that and that should come back.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="20" customHeight="1" s="9">
+      <c r="A44" s="4" t="n">
         <v>10598</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="4">
+      <c r="B44" s="5" t="inlineStr">
+        <is>
+          <t>"33:45"</t>
+        </is>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I think this would be a really good idea. Like a lot of people my age that I've talked to, don't know that we're like we're a constitutional republic because electoral college that we use the Constitution for what we do and strive for United States. And to think that we don't want to put more money towards because we're falling behind in science technology. These are things are going to affect your most everyday life and so</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="20" customHeight="1" s="9">
+      <c r="A45" s="4" t="n">
         <v>10598</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="4">
+      <c r="B45" s="5" t="inlineStr">
+        <is>
+          <t>"33:45"</t>
+        </is>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> So if you don't know about how the government works, then how do you know it's affecting you with laws and how taxes work, anything like that?</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="20" customHeight="1" s="9">
+      <c r="A46" s="4" t="n">
         <v>10507</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="4">
+      <c r="B46" s="5" t="inlineStr">
+        <is>
+          <t>"34:24"</t>
+        </is>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>As far as for me, I, of course I graduated in 91. I, of course, I'm telling my age here now. Anyway, I had a government class in college. I had it in high school and now my my oldest son, he is going to be a sophomore in high school. And of course, they have not seen them where they have, you know, government class.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="20" customHeight="1" s="9">
+      <c r="A47" s="4" t="n">
         <v>10507</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="4">
+      <c r="B47" s="5" t="inlineStr">
+        <is>
+          <t>"34:24"</t>
+        </is>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ass. But they need to do that. Have government classes and education is the biggest part for everybody on this and people need to listen to it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="20" customHeight="1" s="9">
+      <c r="A48" s="4" t="n">
         <v>10680</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="4">
+      <c r="B48" s="5" t="inlineStr">
+        <is>
+          <t>"35:06"</t>
+        </is>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
+        <is>
+          <t>I think teaching Civics in schools is very very important. I really my own personal opinion is I do not see any reason to increase funding necessarily. I think what we need to focus on is what's being taught in the textbooks that the schools are adopting right now that you need to be aware of what the children are being taught. I think it's also great idea to have debates.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="20" customHeight="1" s="9">
+      <c r="A49" s="4" t="n">
         <v>10680</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="4">
+      <c r="B49" s="5" t="inlineStr">
+        <is>
+          <t>"35:06"</t>
+        </is>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> On different opinions and having just the kids in the schools just listen to each other and hear everybody's different opinion but I think what is being taught in the textbooks? I think the textbooks are the most important.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="20" customHeight="1" s="9">
+      <c r="A50" s="4" t="n">
         <v>48290</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C50" s="6"/>
-    </row>
-    <row r="51" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="4">
+      <c r="B50" s="5" t="inlineStr">
+        <is>
+          <t>"35:51"</t>
+        </is>
+      </c>
+      <c r="C50" s="6" t="n"/>
+    </row>
+    <row r="51" ht="20" customHeight="1" s="9">
+      <c r="A51" s="4" t="n">
         <v>48290</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="4">
+      <c r="B51" s="5" t="inlineStr">
+        <is>
+          <t>"35:51"</t>
+        </is>
+      </c>
+      <c r="C51" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I only had one Civic class in high school and I do not think that was enough. This was a about 20-something years ago, but I think they should have more classes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="20" customHeight="1" s="9">
+      <c r="A52" s="4" t="n">
         <v>9522</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="4">
+      <c r="B52" s="5" t="inlineStr">
+        <is>
+          <t>"36:11"</t>
+        </is>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>I really believe that it goes back to what we needs to start doing more on Kathleen. Said, she graduated in 91, I was here before you, and we used to have debates in government. We used to have five-on-five discussions and just to see where we at. That's why I think this platform is so good, because everybody got different views and different</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="20" customHeight="1" s="9">
+      <c r="A53" s="4" t="n">
         <v>9522</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="4">
+      <c r="B53" s="5" t="inlineStr">
+        <is>
+          <t>"36:11"</t>
+        </is>
+      </c>
+      <c r="C53" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> standing from things. I've been doing this now for four years. I learned there something every time I do this and that's what we need to get back to Islam. Discussing discussing things, there's nothing more important in the United States, then,</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="20" customHeight="1" s="9">
+      <c r="A54" s="4" t="n">
         <v>10680</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="4">
+      <c r="B54" s="5" t="inlineStr">
+        <is>
+          <t>"41:27"</t>
+        </is>
+      </c>
+      <c r="C54" s="5" t="inlineStr">
+        <is>
+          <t>I'm going to say something because no one is saying anything, I appreciate very much your thought on this of eliminating one ship or one aircraft to fund democracy education in the school's. I understand how important teaching Civics is in our schools. Our children are growing up, not knowing anything about their country. I think the military is very important as well. I don't think that we need to add more</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="20" customHeight="1" s="9">
+      <c r="A55" s="4" t="n">
         <v>10680</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="4">
+      <c r="B55" s="5" t="inlineStr">
+        <is>
+          <t>"41:27"</t>
+        </is>
+      </c>
+      <c r="C55" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> More money to teaching Civics in school. I just think we need to look at what's being taught in the textbooks. That's what I feel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="20" customHeight="1" s="9">
+      <c r="A56" s="4" t="n">
         <v>10680</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="4">
+      <c r="B56" s="5" t="inlineStr">
+        <is>
+          <t>"42:18"</t>
+        </is>
+      </c>
+      <c r="C56" s="5" t="inlineStr">
+        <is>
+          <t>This is my question. My thought on this is if we have a constitutional amendment to have nine Supreme Court Justices, that's what we have right now. That's the only reason I picked the number 9. Then we don't have people fighting back and forth in each party or people arguing about whether we should pack the Supreme Court whether we should not, whether we should increase whether we should decrease, you know, it takes away the argument, it takes with a</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="20" customHeight="1" s="9">
+      <c r="A57" s="4" t="n">
         <v>10680</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="4">
+      <c r="B57" s="5" t="inlineStr">
+        <is>
+          <t>"42:18"</t>
+        </is>
+      </c>
+      <c r="C57" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Problems. That's just my thought.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="20" customHeight="1" s="9">
+      <c r="A58" s="4" t="n">
         <v>48390</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="4">
+      <c r="B58" s="5" t="inlineStr">
+        <is>
+          <t>"42:51"</t>
+        </is>
+      </c>
+      <c r="C58" s="5" t="inlineStr">
+        <is>
+          <t>Well, clearly they've packed the court. Clearly they have political agendas and clearly having six justices of the same religion, creates a bias within that court. So, unless and until we have a better system of selecting judges, we're going to have to leave the option over and to expand the Supreme Court.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="20" customHeight="1" s="9">
+      <c r="A59" s="4" t="n">
         <v>10507</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="4">
+      <c r="B59" s="5" t="inlineStr">
+        <is>
+          <t>"43:15"</t>
+        </is>
+      </c>
+      <c r="C59" s="5" t="inlineStr">
+        <is>
+          <t>I say we just leave the Supreme Court just as 9 and whether they are all have the same views, it's okay. But if not that's fine, we just need to have it. I agree with Barbara that we need to have the Constitutional Amendment at nine justices because they are picked from all different, you know, religions and things like this. So just leave it at nine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="20" customHeight="1" s="9">
+      <c r="A60" s="4" t="n">
         <v>10507</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C60" s="6"/>
-    </row>
-    <row r="61" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="4">
+      <c r="B60" s="5" t="inlineStr">
+        <is>
+          <t>"43:15"</t>
+        </is>
+      </c>
+      <c r="C60" s="6" t="n"/>
+    </row>
+    <row r="61" ht="20" customHeight="1" s="9">
+      <c r="A61" s="4" t="n">
         <v>10680</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="4">
+      <c r="B61" s="5" t="inlineStr">
+        <is>
+          <t>"44:10"</t>
+        </is>
+      </c>
+      <c r="C61" s="5" t="inlineStr">
+        <is>
+          <t>Timothy, I love this question. I read it and I put it up at the top. At number one, it is fantastic. The children, go to school to learn reading language, arts Math, Science Social Studies Civics. A lot of different things in the schools, they don't go to school to learn</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="20" customHeight="1" s="9">
+      <c r="A62" s="4" t="n">
         <v>10680</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="4">
+      <c r="B62" s="5" t="inlineStr">
+        <is>
+          <t>"44:10"</t>
+        </is>
+      </c>
+      <c r="C62" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The social influences of the Educators who were there at the school? We need to have teachers who are not trying to instill their personal beliefs on the students, the teachers need to do their job. They need to</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="20" customHeight="1" s="9">
+      <c r="A63" s="4" t="n">
         <v>48390</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C63" s="6"/>
-    </row>
-    <row r="64" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="4">
+      <c r="B63" s="5" t="inlineStr">
+        <is>
+          <t>"44:55"</t>
+        </is>
+      </c>
+      <c r="C63" s="6" t="n"/>
+    </row>
+    <row r="64" ht="20" customHeight="1" s="9">
+      <c r="A64" s="4" t="n">
         <v>48390</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="4">
+      <c r="B64" s="5" t="inlineStr">
+        <is>
+          <t>"44:55"</t>
+        </is>
+      </c>
+      <c r="C64" s="5" t="inlineStr">
+        <is>
+          <t>Again it's difficult to eliminate bias within the school system because we have so many teachers to are now caught up in that several political movements. So if we had a national curriculum, just based on the simple Act of living in a democracy that would be a good step.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="20" customHeight="1" s="9">
+      <c r="A65" s="4" t="n">
         <v>9484</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="4">
+      <c r="B65" s="5" t="inlineStr">
+        <is>
+          <t>"45:24"</t>
+        </is>
+      </c>
+      <c r="C65" s="5" t="inlineStr">
+        <is>
+          <t>Bush tried to do a national teaching system that never work, but</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="20" customHeight="1" s="9">
+      <c r="A66" s="4" t="n">
         <v>9484</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="4">
+      <c r="B66" s="5" t="inlineStr">
+        <is>
+          <t>"45:24"</t>
+        </is>
+      </c>
+      <c r="C66" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I have three kids that are teachers, my youngest three kids and they do do things based on what their opinions are. So if you bring up your children in a proper way, their opinions might be better than what the some of the teachers and the school systems try to do now.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67" ht="20" customHeight="1" s="9">
+      <c r="A67" s="4" t="n">
         <v>48260</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="4">
+      <c r="B67" s="5" t="inlineStr">
+        <is>
+          <t>"45:51"</t>
+        </is>
+      </c>
+      <c r="C67" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, wanted to reassure Barbara that you know, most of the textbooks are 30 years olds anyway, they're not exactly up to date.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" ht="20" customHeight="1" s="9">
+      <c r="A68" s="4" t="n">
         <v>10680</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="4">
+      <c r="B68" s="5" t="inlineStr">
+        <is>
+          <t>"46:02"</t>
+        </is>
+      </c>
+      <c r="C68" s="5" t="inlineStr">
+        <is>
+          <t>I was a teacher for 37 years, my various beliefs on anything other than being kind to other people and thoughtful. That was it. I did not try to instill anything into my students, and I taught 37 years.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" ht="20" customHeight="1" s="9">
+      <c r="A69" s="4" t="n">
         <v>10507</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="4">
+      <c r="B69" s="5" t="inlineStr">
+        <is>
+          <t>"46:53"</t>
+        </is>
+      </c>
+      <c r="C69" s="5" t="inlineStr">
+        <is>
+          <t>I put this question in because a lot of well the schools they are eliminating a lot of as far as classes and things like this and we need to get back to what we have in like what I had in school and like, you know, like Barbara said, she taught for 37 years. I mean, you know, a lot of those good school teachers that we all had when we were younger are not out there, we've got all these new ones on there that one at all, like you said, they want to interject.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70" ht="20" customHeight="1" s="9">
+      <c r="A70" s="4" t="n">
         <v>10507</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="4">
+      <c r="B70" s="5" t="inlineStr">
+        <is>
+          <t>"46:53"</t>
+        </is>
+      </c>
+      <c r="C70" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Act their opinions in influence, our kids on things that are not right sometimes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71" ht="20" customHeight="1" s="9">
+      <c r="A71" s="4" t="n">
         <v>9484</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="4">
+      <c r="B71" s="5" t="inlineStr">
+        <is>
+          <t>"47:31"</t>
+        </is>
+      </c>
+      <c r="C71" s="5" t="inlineStr">
+        <is>
+          <t>My daughter's at a teachers teach when teaches stem, which is Math and Science and the other one teaches math and math and science. And pretty much have the same, its social studies, and things of that nature that get opinions put in.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" ht="20" customHeight="1" s="9">
+      <c r="A72" s="4" t="n">
         <v>9522</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="4">
+      <c r="B72" s="5" t="inlineStr">
+        <is>
+          <t>"47:50"</t>
+        </is>
+      </c>
+      <c r="C72" s="5" t="inlineStr">
+        <is>
+          <t>I think this question is Big because just get back to basic it kills me to know that they don't even teach how to write cursive no more. How can you sign a check? Now, I guess everybody going to put a hex on their own they checks and stuff. Now it's just things that they took away. That means something to our country that we have had for my grandparents, and their parents and so on, it worked for us why it can't work for them.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" ht="20" customHeight="1" s="9">
+      <c r="A73" s="4" t="n">
         <v>10507</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="4">
+      <c r="B73" s="5" t="inlineStr">
+        <is>
+          <t>"48:17"</t>
+        </is>
+      </c>
+      <c r="C73" s="5" t="inlineStr">
+        <is>
+          <t>In our school, where as far as where my kids go to school, they don't have driver's ed. They don't have as far as singles Hummock, those are the two important things you need to have to have a job. Why are we getting away from that and going into something totally different? Now, I mean, this is why we need to get back to our Basics and teaching our kids, this because a lot of them they don't know. Like like T said they don't know how to balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" ht="20" customHeight="1" s="9">
+      <c r="A74" s="4" t="n">
         <v>10507</v>
       </c>
-      <c r="B74" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="4">
+      <c r="B74" s="5" t="inlineStr">
+        <is>
+          <t>"48:17"</t>
+        </is>
+      </c>
+      <c r="C74" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Checkbooks. And so, I mean this is something we got to get back to doing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75" ht="20" customHeight="1" s="9">
+      <c r="A75" s="4" t="n">
         <v>10680</v>
       </c>
-      <c r="B75" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="4">
+      <c r="B75" s="5" t="inlineStr">
+        <is>
+          <t>"48:54"</t>
+        </is>
+      </c>
+      <c r="C75" s="5" t="inlineStr">
+        <is>
+          <t>I agree. Thank you very much. Your opinions are wonderful. Thank you. I agree. And we do need to teach cursive. I agree with that too.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76" ht="20" customHeight="1" s="9">
+      <c r="A76" s="4" t="n">
         <v>48390</v>
       </c>
-      <c r="B76" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C76" s="6"/>
-    </row>
-    <row r="77" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="4">
+      <c r="B76" s="5" t="inlineStr">
+        <is>
+          <t>"50:11"</t>
+        </is>
+      </c>
+      <c r="C76" s="6" t="n"/>
+    </row>
+    <row r="77" ht="20" customHeight="1" s="9">
+      <c r="A77" s="4" t="n">
         <v>48390</v>
       </c>
-      <c r="B77" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="4">
+      <c r="B77" s="5" t="inlineStr">
+        <is>
+          <t>"50:11"</t>
+        </is>
+      </c>
+      <c r="C77" s="5" t="inlineStr">
+        <is>
+          <t>Could you rewrite that question? So it is a question.</t>
+        </is>
+      </c>
+    </row>
+    <row r="78" ht="20" customHeight="1" s="9">
+      <c r="A78" s="4" t="n">
         <v>48260</v>
       </c>
-      <c r="B78" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>118</v>
+      <c r="B78" s="5" t="inlineStr">
+        <is>
+          <t>"50:52"</t>
+        </is>
+      </c>
+      <c r="C78" s="5" t="inlineStr">
+        <is>
+          <t>So basically, how do we make a better school system for our children is what I'm understanding there.</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1122B850-A190-A844-830B-B2CE962F923E}">
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>